--- a/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/desired-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="200">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,174 +40,183 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>stress</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>disgusting</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>struggling</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>problem</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>affected</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
-    <t>saudi</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>emergency</t>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>related</t>
+  </si>
+  <si>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>shortages</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>vulnerable</t>
   </si>
   <si>
-    <t>related</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
@@ -217,6 +226,9 @@
     <t>because</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
     <t>buying</t>
   </si>
   <si>
@@ -226,343 +238,382 @@
     <t>co</t>
   </si>
   <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
     <t>with</t>
   </si>
   <si>
-    <t>prices</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>that</t>
   </si>
   <si>
     <t>supermarket</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>closing</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>create</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>article</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>amazon</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>here</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>our</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>so</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>as</t>
   </si>
   <si>
-    <t>this</t>
-  </si>
-  <si>
-    <t>at</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>food</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -920,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -928,10 +979,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="J1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -989,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1007,10 +1058,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -1039,13 +1090,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1057,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1081,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1089,13 +1140,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9130434782608695</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1107,31 +1158,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L5">
+        <v>34</v>
+      </c>
+      <c r="M5">
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>2</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L5">
-        <v>56</v>
-      </c>
-      <c r="M5">
-        <v>56</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1142,10 +1193,10 @@
         <v>0.8947368421052632</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1157,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K6">
-        <v>0.9375</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L6">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="M6">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1181,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1210,16 +1261,16 @@
         <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K7">
-        <v>0.9230769230769231</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1231,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1239,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1257,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1289,13 +1340,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1307,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K9">
-        <v>0.9090909090909091</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1339,13 +1390,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8611111111111112</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1357,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K10">
-        <v>0.9090909090909091</v>
+        <v>0.9162303664921466</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1378,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1389,13 +1440,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8561643835616438</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C11">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1407,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K11">
-        <v>0.9033942558746736</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1431,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1439,13 +1490,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8275862068965517</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="D12">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1457,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K12">
-        <v>0.8947368421052632</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L12">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M12">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1481,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1489,13 +1540,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8260869565217391</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1507,31 +1558,31 @@
         <v>0</v>
       </c>
       <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L13">
+        <v>29</v>
+      </c>
+      <c r="M13">
+        <v>29</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K13">
-        <v>0.8936170212765957</v>
-      </c>
-      <c r="L13">
-        <v>42</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1539,13 +1590,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8125</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1557,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K14">
-        <v>0.8928571428571429</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1581,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1589,13 +1640,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1607,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K15">
-        <v>0.890625</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L15">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="M15">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1639,13 +1690,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1657,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K16">
-        <v>0.8837209302325582</v>
+        <v>0.8671875</v>
       </c>
       <c r="L16">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="M16">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1681,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1689,13 +1740,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.775</v>
+        <v>0.8</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1707,10 +1758,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K17">
         <v>0.8666666666666667</v>
@@ -1739,13 +1790,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7391304347826086</v>
+        <v>0.775</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1757,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="K18">
-        <v>0.8625</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L18">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="M18">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1781,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1789,13 +1840,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7368421052631579</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1807,19 +1858,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="K19">
-        <v>0.8584905660377359</v>
+        <v>0.85625</v>
       </c>
       <c r="L19">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="M19">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1831,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1839,13 +1890,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7368421052631579</v>
+        <v>0.76</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1857,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1881,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1889,13 +1940,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7254901960784313</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1907,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K21">
-        <v>0.852112676056338</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L21">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="M21">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1931,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1939,13 +1990,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6923076923076923</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C22">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1957,19 +2008,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K22">
-        <v>0.8448275862068966</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1981,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1989,13 +2040,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6923076923076923</v>
+        <v>0.71875</v>
       </c>
       <c r="C23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D23">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2007,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="K23">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -2039,13 +2090,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6841085271317829</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C24">
-        <v>353</v>
+        <v>36</v>
       </c>
       <c r="D24">
-        <v>353</v>
+        <v>36</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -2057,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="K24">
-        <v>0.8333333333333334</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -2081,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -2089,13 +2140,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6818181818181818</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -2110,16 +2161,16 @@
         <v>7</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="K25">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2131,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -2139,13 +2190,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6666666666666666</v>
+        <v>0.6937984496124031</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>358</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2157,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K26">
-        <v>0.8125</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2181,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2189,13 +2240,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2207,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K27">
-        <v>0.8055555555555556</v>
+        <v>0.8</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2231,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2239,13 +2290,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6613756613756614</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C28">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2257,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="K28">
-        <v>0.8</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2281,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2289,13 +2340,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6451612903225806</v>
+        <v>0.6878306878306878</v>
       </c>
       <c r="C29">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2307,19 +2358,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K29">
         <v>0.7916666666666666</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2331,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2339,13 +2390,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6440677966101694</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C30">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2357,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K30">
-        <v>0.7894736842105263</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2381,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2389,13 +2440,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.6410256410256411</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2407,19 +2458,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="K31">
-        <v>0.7857142857142857</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2431,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2439,13 +2490,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6363636363636364</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2457,19 +2508,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K32">
-        <v>0.7647058823529411</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2481,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2489,13 +2540,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2507,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K33">
-        <v>0.7619047619047619</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L33">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M33">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2531,7 +2582,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2539,13 +2590,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6216216216216216</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2560,16 +2611,16 @@
         <v>14</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2589,13 +2640,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6153846153846154</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2610,16 +2661,16 @@
         <v>10</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K35">
-        <v>0.7450980392156863</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L35">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2631,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2639,13 +2690,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.5973154362416108</v>
+        <v>0.625</v>
       </c>
       <c r="C36">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2657,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="K36">
-        <v>0.7411764705882353</v>
+        <v>0.7294117647058823</v>
       </c>
       <c r="L36">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M36">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2681,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2689,13 +2740,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5925925925925926</v>
+        <v>0.6216216216216216</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D37">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2707,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="K37">
-        <v>0.7407407407407407</v>
+        <v>0.7238493723849372</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2731,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2739,7 +2790,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5925925925925926</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C38">
         <v>16</v>
@@ -2757,19 +2808,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="K38">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2781,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2789,13 +2840,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5861111111111111</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C39">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="D39">
-        <v>211</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2807,19 +2858,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>149</v>
+        <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K39">
-        <v>0.7220338983050848</v>
+        <v>0.7078651685393258</v>
       </c>
       <c r="L39">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="M39">
-        <v>213</v>
+        <v>63</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2831,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>82</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2839,13 +2890,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C40">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="D40">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2857,19 +2908,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="K40">
-        <v>0.717948717948718</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2881,7 +2932,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2889,13 +2940,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5483870967741935</v>
+        <v>0.5944444444444444</v>
       </c>
       <c r="C41">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="D41">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2907,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>14</v>
+        <v>146</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="K41">
-        <v>0.7083333333333334</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2931,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2939,13 +2990,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5272727272727272</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C42">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2957,31 +3008,31 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="K42">
-        <v>0.6974789915966386</v>
+        <v>0.7040816326530612</v>
       </c>
       <c r="L42">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="M42">
-        <v>167</v>
+        <v>208</v>
       </c>
       <c r="N42">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2989,13 +3040,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5178571428571429</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="C43">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D43">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -3007,19 +3058,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="K43">
-        <v>0.6857142857142857</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="L43">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3031,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -3039,38 +3090,38 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.5161290322580645</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>13</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K44">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="L44">
         <v>16</v>
       </c>
-      <c r="D44">
+      <c r="M44">
         <v>16</v>
       </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>15</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44">
-        <v>0.68</v>
-      </c>
-      <c r="L44">
-        <v>34</v>
-      </c>
-      <c r="M44">
-        <v>34</v>
-      </c>
       <c r="N44">
         <v>1</v>
       </c>
@@ -3081,7 +3132,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -3089,13 +3140,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5161290322580645</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C45">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -3107,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="K45">
-        <v>0.6785714285714286</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3131,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3139,13 +3190,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.509090909090909</v>
+        <v>0.5503355704697986</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3157,19 +3208,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="K46">
-        <v>0.6702127659574468</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L46">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3181,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3189,13 +3240,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3207,19 +3258,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3231,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3239,13 +3290,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="C48">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3257,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3281,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3289,13 +3340,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4888888888888889</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C49">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3307,19 +3358,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="K49">
         <v>0.6666666666666666</v>
       </c>
       <c r="L49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3331,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3339,13 +3390,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4814814814814815</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3357,19 +3408,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="K50">
-        <v>0.6629213483146067</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L50">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="M50">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3381,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3389,13 +3440,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.48</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3407,19 +3458,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="K51">
-        <v>0.6307692307692307</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L51">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M51">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3439,13 +3490,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3968253968253968</v>
+        <v>0.5</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3457,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>152</v>
+        <v>45</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K52">
-        <v>0.6222222222222222</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3481,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3489,13 +3540,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.3896103896103896</v>
+        <v>0.5</v>
       </c>
       <c r="C53">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D53">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3507,31 +3558,31 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="K53">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3539,13 +3590,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.375</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3557,19 +3608,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="K54">
-        <v>0.6086956521739131</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L54">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3581,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3589,38 +3640,38 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.325</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C55">
+        <v>33</v>
+      </c>
+      <c r="D55">
+        <v>33</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>44</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K55">
+        <v>0.6190476190476191</v>
+      </c>
+      <c r="L55">
         <v>13</v>
       </c>
-      <c r="D55">
+      <c r="M55">
         <v>13</v>
       </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>27</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K55">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L55">
-        <v>17</v>
-      </c>
-      <c r="M55">
-        <v>17</v>
-      </c>
       <c r="N55">
         <v>1</v>
       </c>
@@ -3631,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3639,13 +3690,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.3023255813953488</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C56">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3657,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="K56">
-        <v>0.5833333333333334</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L56">
         <v>14</v>
@@ -3681,7 +3732,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3689,13 +3740,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.2549019607843137</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D57">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3707,19 +3758,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="K57">
-        <v>0.5714285714285714</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3731,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3739,13 +3790,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2372881355932203</v>
+        <v>0.375</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D58">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3757,19 +3808,19 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="K58">
-        <v>0.5652173913043478</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3781,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3789,13 +3840,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2359249329758713</v>
+        <v>0.3658536585365854</v>
       </c>
       <c r="C59">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="D59">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3807,31 +3858,31 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>285</v>
+        <v>26</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="K59">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L59">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3839,13 +3890,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1366666666666667</v>
+        <v>0.3531746031746032</v>
       </c>
       <c r="C60">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="D60">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -3857,19 +3908,19 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="K60">
-        <v>0.543859649122807</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L60">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3881,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3889,49 +3940,49 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09375</v>
+        <v>0.325</v>
       </c>
       <c r="C61">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>27</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K61">
+        <v>0.5588235294117647</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
+        <v>19</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61">
         <v>15</v>
-      </c>
-      <c r="D61">
-        <v>15</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>145</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K61">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="L61">
-        <v>14</v>
-      </c>
-      <c r="M61">
-        <v>14</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q61">
-        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3939,37 +3990,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.0821917808219178</v>
+        <v>0.2734584450402145</v>
       </c>
       <c r="C62">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="E62">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F62">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="K62">
-        <v>0.53125</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L62">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M62">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3981,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3989,37 +4040,37 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04904632152588556</v>
+        <v>0.17</v>
       </c>
       <c r="C63">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D63">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="K63">
-        <v>0.4705882352941176</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -4031,7 +4082,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -4039,37 +4090,37 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.02483870967741935</v>
+        <v>0.08176100628930817</v>
       </c>
       <c r="C64">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="D64">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E64">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F64">
-        <v>0.92</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="G64" t="b">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>3023</v>
+        <v>146</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="K64">
-        <v>0.4487179487179487</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L64">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M64">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -4081,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -4089,37 +4140,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02428571428571429</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="C65">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D65">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E65">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.6799999999999999</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>683</v>
+        <v>218</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="K65">
-        <v>0.4426229508196721</v>
+        <v>0.5</v>
       </c>
       <c r="L65">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M65">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4131,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4139,37 +4190,37 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01984469370146678</v>
+        <v>0.05821917808219178</v>
       </c>
       <c r="C66">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D66">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="E66">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F66">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1136</v>
+        <v>275</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="K66">
-        <v>0.423728813559322</v>
+        <v>0.5</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -4181,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -4189,37 +4240,37 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0162037037037037</v>
+        <v>0.04087193460490463</v>
       </c>
       <c r="C67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="F67">
-        <v>0.8200000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>850</v>
+        <v>352</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="K67">
-        <v>0.3181818181818182</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L67">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M67">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -4231,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -4239,37 +4290,37 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.01611047180667434</v>
+        <v>0.0346839546191248</v>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D68">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E68">
-        <v>0.48</v>
+        <v>0.17</v>
       </c>
       <c r="F68">
-        <v>0.52</v>
+        <v>0.83</v>
       </c>
       <c r="G68" t="b">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>855</v>
+        <v>2978</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="K68">
-        <v>0.25</v>
+        <v>0.4918032786885246</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4281,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -4289,37 +4340,37 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.015625</v>
+        <v>0.03073770491803279</v>
       </c>
       <c r="C69">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D69">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E69">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="F69">
-        <v>0.77</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G69" t="b">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>2331</v>
+        <v>473</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="K69">
-        <v>0.2452830188679245</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -4331,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -4339,37 +4390,37 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.01516360734237829</v>
+        <v>0.03022452504317789</v>
       </c>
       <c r="C70">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="D70">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E70">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="F70">
-        <v>0.35</v>
+        <v>0.92</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1234</v>
+        <v>1123</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="K70">
-        <v>0.2452830188679245</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4381,7 +4432,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -4389,13 +4440,13 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.01409691629955947</v>
+        <v>0.02883799830364716</v>
       </c>
       <c r="C71">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D71">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E71">
         <v>0.24</v>
@@ -4407,31 +4458,31 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1119</v>
+        <v>2290</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="K71">
-        <v>0.2429906542056075</v>
+        <v>0.390625</v>
       </c>
       <c r="L71">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M71">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N71">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -4439,37 +4490,37 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.01359649122807018</v>
+        <v>0.02605863192182411</v>
       </c>
       <c r="C72">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D72">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="E72">
-        <v>0.48</v>
+        <v>0.45</v>
       </c>
       <c r="F72">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="G72" t="b">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>2249</v>
+        <v>598</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="K72">
-        <v>0.2258064516129032</v>
+        <v>0.2978723404255319</v>
       </c>
       <c r="L72">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -4481,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>96</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -4489,49 +4540,49 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.0134788189987163</v>
+        <v>0.02421652421652421</v>
       </c>
       <c r="C73">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D73">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="E73">
-        <v>0.63</v>
+        <v>0.26</v>
       </c>
       <c r="F73">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="G73" t="b">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1537</v>
+        <v>685</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="K73">
-        <v>0.1830985915492958</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L73">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M73">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N73">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>116</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -4539,37 +4590,37 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.01267605633802817</v>
+        <v>0.02402260951483749</v>
       </c>
       <c r="C74">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D74">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="E74">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="F74">
-        <v>0.6699999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>2103</v>
+        <v>2072</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="K74">
-        <v>0.1789473684210526</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M74">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -4581,7 +4632,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>78</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -4589,49 +4640,49 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.01098901098901099</v>
+        <v>0.02398523985239853</v>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="D75">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="E75">
-        <v>0.52</v>
+        <v>0.19</v>
       </c>
       <c r="F75">
-        <v>0.48</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G75" t="b">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>4230</v>
+        <v>529</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="K75">
-        <v>0.1297297297297297</v>
+        <v>0.2476190476190476</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M75">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N75">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="P75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q75">
-        <v>161</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -4639,37 +4690,37 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.01037217815741306</v>
+        <v>0.02218278615794144</v>
       </c>
       <c r="C76">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D76">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="E76">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="F76">
-        <v>0.39</v>
+        <v>0.6599999999999999</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>4866</v>
+        <v>1102</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="K76">
-        <v>0.1046511627906977</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L76">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M76">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -4681,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>154</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -4689,37 +4740,37 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.008051846032992929</v>
+        <v>0.0218408736349454</v>
       </c>
       <c r="C77">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="D77">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="E77">
-        <v>0.64</v>
+        <v>0.3</v>
       </c>
       <c r="F77">
-        <v>0.36</v>
+        <v>0.7</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>5051</v>
+        <v>627</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="K77">
-        <v>0.09202453987730061</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L77">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -4731,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -4739,49 +4790,49 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.007958801498127341</v>
+        <v>0.02090592334494774</v>
       </c>
       <c r="C78">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D78">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E78">
-        <v>0.5600000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="F78">
-        <v>0.4399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G78" t="b">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>2119</v>
+        <v>843</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="K78">
-        <v>0.06818181818181818</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="L78">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>287</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -4789,49 +4840,49 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.007296466973886329</v>
+        <v>0.01837060702875399</v>
       </c>
       <c r="C79">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D79">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E79">
-        <v>0.78</v>
+        <v>0.62</v>
       </c>
       <c r="F79">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="G79" t="b">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2585</v>
+        <v>1229</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="K79">
-        <v>0.06746987951807229</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M79">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>387</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -4839,49 +4890,49 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.007121910347716799</v>
+        <v>0.01677852348993289</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D80">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E80">
-        <v>0.77</v>
+        <v>0.42</v>
       </c>
       <c r="F80">
-        <v>0.23</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>2370</v>
+        <v>879</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="K80">
-        <v>0.0659025787965616</v>
+        <v>0.1234567901234568</v>
       </c>
       <c r="L80">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M80">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>326</v>
+        <v>142</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -4889,777 +4940,1305 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.005148005148005148</v>
+        <v>0.01444833625218914</v>
       </c>
       <c r="C81">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>58</v>
+      </c>
+      <c r="E81">
+        <v>0.43</v>
+      </c>
+      <c r="F81">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>2251</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K81">
+        <v>0.1228070175438596</v>
+      </c>
+      <c r="L81">
+        <v>14</v>
+      </c>
+      <c r="M81">
         <v>16</v>
       </c>
-      <c r="D81">
-        <v>109</v>
-      </c>
-      <c r="E81">
-        <v>0.85</v>
-      </c>
-      <c r="F81">
-        <v>0.15</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81">
-        <v>3092</v>
-      </c>
-      <c r="J81" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="K81">
-        <v>0.06463878326996197</v>
-      </c>
-      <c r="L81">
+      <c r="N81">
+        <v>0.88</v>
+      </c>
+      <c r="O81">
+        <v>0.12</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.01339285714285714</v>
+      </c>
+      <c r="C82">
+        <v>18</v>
+      </c>
+      <c r="D82">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <v>0.51</v>
+      </c>
+      <c r="F82">
+        <v>0.49</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1326</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="K82">
+        <v>0.1118881118881119</v>
+      </c>
+      <c r="L82">
+        <v>16</v>
+      </c>
+      <c r="M82">
+        <v>16</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.01319417093343836</v>
+      </c>
+      <c r="C83">
+        <v>67</v>
+      </c>
+      <c r="D83">
+        <v>154</v>
+      </c>
+      <c r="E83">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F83">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>5011</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="K83">
+        <v>0.1104651162790698</v>
+      </c>
+      <c r="L83">
+        <v>19</v>
+      </c>
+      <c r="M83">
+        <v>19</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.01255230125523013</v>
+      </c>
+      <c r="C84">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>85</v>
+      </c>
+      <c r="E84">
+        <v>0.65</v>
+      </c>
+      <c r="F84">
+        <v>0.35</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>2360</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="K84">
+        <v>0.0958904109589041</v>
+      </c>
+      <c r="L84">
+        <v>14</v>
+      </c>
+      <c r="M84">
+        <v>15</v>
+      </c>
+      <c r="N84">
+        <v>0.93</v>
+      </c>
+      <c r="O84">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.01172607879924953</v>
+      </c>
+      <c r="C85">
+        <v>25</v>
+      </c>
+      <c r="D85">
+        <v>51</v>
+      </c>
+      <c r="E85">
+        <v>0.51</v>
+      </c>
+      <c r="F85">
+        <v>0.49</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>2107</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K85">
+        <v>0.0895397489539749</v>
+      </c>
+      <c r="L85">
+        <v>107</v>
+      </c>
+      <c r="M85">
+        <v>112</v>
+      </c>
+      <c r="N85">
+        <v>0.96</v>
+      </c>
+      <c r="O85">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.01148886283704572</v>
+      </c>
+      <c r="C86">
+        <v>49</v>
+      </c>
+      <c r="D86">
+        <v>112</v>
+      </c>
+      <c r="E86">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F86">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>4216</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K86">
+        <v>0.08441558441558442</v>
+      </c>
+      <c r="L86">
+        <v>26</v>
+      </c>
+      <c r="M86">
+        <v>26</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.01138442772921325</v>
+      </c>
+      <c r="C87">
+        <v>56</v>
+      </c>
+      <c r="D87">
+        <v>133</v>
+      </c>
+      <c r="E87">
+        <v>0.58</v>
+      </c>
+      <c r="F87">
+        <v>0.42</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>4863</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="K87">
+        <v>0.07449856733524356</v>
+      </c>
+      <c r="L87">
+        <v>26</v>
+      </c>
+      <c r="M87">
+        <v>26</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.0109184328837508</v>
+      </c>
+      <c r="C88">
         <v>17</v>
       </c>
-      <c r="M81">
-        <v>22</v>
-      </c>
-      <c r="N81">
-        <v>0.77</v>
-      </c>
-      <c r="O81">
-        <v>0.23</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17">
-      <c r="J82" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="K82">
-        <v>0.06270903010033445</v>
-      </c>
-      <c r="L82">
-        <v>75</v>
-      </c>
-      <c r="M82">
-        <v>79</v>
-      </c>
-      <c r="N82">
-        <v>0.95</v>
-      </c>
-      <c r="O82">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17">
-      <c r="J83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K83">
-        <v>0.05882352941176471</v>
-      </c>
-      <c r="L83">
-        <v>17</v>
-      </c>
-      <c r="M83">
-        <v>17</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17">
-      <c r="J84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="K84">
-        <v>0.05677655677655678</v>
-      </c>
-      <c r="L84">
-        <v>31</v>
-      </c>
-      <c r="M84">
-        <v>32</v>
-      </c>
-      <c r="N84">
+      <c r="D88">
+        <v>54</v>
+      </c>
+      <c r="E88">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F88">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1540</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K88">
+        <v>0.06954436450839328</v>
+      </c>
+      <c r="L88">
+        <v>29</v>
+      </c>
+      <c r="M88">
+        <v>30</v>
+      </c>
+      <c r="N88">
         <v>0.97</v>
       </c>
-      <c r="O84">
+      <c r="O88">
         <v>0.03000000000000003</v>
       </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17">
-      <c r="J85" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K85">
-        <v>0.03846153846153846</v>
-      </c>
-      <c r="L85">
-        <v>16</v>
-      </c>
-      <c r="M85">
-        <v>18</v>
-      </c>
-      <c r="N85">
-        <v>0.89</v>
-      </c>
-      <c r="O85">
-        <v>0.11</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17">
-      <c r="J86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="K86">
-        <v>0.03421461897356143</v>
-      </c>
-      <c r="L86">
-        <v>22</v>
-      </c>
-      <c r="M86">
-        <v>29</v>
-      </c>
-      <c r="N86">
-        <v>0.76</v>
-      </c>
-      <c r="O86">
-        <v>0.24</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17">
-      <c r="J87" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="K87">
-        <v>0.03421052631578948</v>
-      </c>
-      <c r="L87">
-        <v>13</v>
-      </c>
-      <c r="M87">
-        <v>16</v>
-      </c>
-      <c r="N87">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O87">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17">
-      <c r="J88" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K88">
-        <v>0.03015075376884422</v>
-      </c>
-      <c r="L88">
-        <v>24</v>
-      </c>
-      <c r="M88">
-        <v>29</v>
-      </c>
-      <c r="N88">
-        <v>0.83</v>
-      </c>
-      <c r="O88">
-        <v>0.17</v>
-      </c>
       <c r="P88" t="b">
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>772</v>
+        <v>388</v>
       </c>
     </row>
     <row r="89" spans="1:17">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.01041264944080216</v>
+      </c>
+      <c r="C89">
+        <v>27</v>
+      </c>
+      <c r="D89">
+        <v>107</v>
+      </c>
+      <c r="E89">
+        <v>0.75</v>
+      </c>
+      <c r="F89">
+        <v>0.25</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>2566</v>
+      </c>
       <c r="J89" s="1" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
       <c r="K89">
-        <v>0.02919937205651491</v>
+        <v>0.06920415224913495</v>
       </c>
       <c r="L89">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="M89">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="N89">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>3092</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:17">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.007381258023106547</v>
+      </c>
+      <c r="C90">
+        <v>23</v>
+      </c>
+      <c r="D90">
+        <v>108</v>
+      </c>
+      <c r="E90">
+        <v>0.79</v>
+      </c>
+      <c r="F90">
+        <v>0.21</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>3093</v>
+      </c>
       <c r="J90" s="1" t="s">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="K90">
-        <v>0.02834645669291339</v>
+        <v>0.0625</v>
       </c>
       <c r="L90">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M90">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N90">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>1234</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:17">
       <c r="J91" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="K91">
-        <v>0.02644964394710071</v>
+        <v>0.06227106227106227</v>
       </c>
       <c r="L91">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M91">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N91">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O91">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P91" t="b">
         <v>1</v>
       </c>
       <c r="Q91">
-        <v>957</v>
+        <v>512</v>
       </c>
     </row>
     <row r="92" spans="1:17">
       <c r="J92" s="1" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
       <c r="K92">
-        <v>0.02599849284099472</v>
+        <v>0.0390015600624025</v>
       </c>
       <c r="L92">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M92">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="N92">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="O92">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="P92" t="b">
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>2585</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:17">
       <c r="J93" s="1" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="K93">
-        <v>0.02504816955684008</v>
+        <v>0.03803131991051454</v>
       </c>
       <c r="L93">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N93">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="O93">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="P93" t="b">
         <v>1</v>
       </c>
       <c r="Q93">
-        <v>1012</v>
+        <v>430</v>
       </c>
     </row>
     <row r="94" spans="1:17">
       <c r="J94" s="1" t="s">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c r="K94">
-        <v>0.02388797364085667</v>
+        <v>0.03465851172273191</v>
       </c>
       <c r="L94">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="M94">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="N94">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="O94">
-        <v>0.23</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="P94" t="b">
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>2370</v>
+        <v>947</v>
       </c>
     </row>
     <row r="95" spans="1:17">
       <c r="J95" s="1" t="s">
-        <v>78</v>
+        <v>189</v>
       </c>
       <c r="K95">
-        <v>0.02288620470438652</v>
+        <v>0.03262233375156838</v>
       </c>
       <c r="L95">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="M95">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="N95">
-        <v>0.63</v>
+        <v>0.87</v>
       </c>
       <c r="O95">
-        <v>0.37</v>
+        <v>0.13</v>
       </c>
       <c r="P95" t="b">
         <v>1</v>
       </c>
       <c r="Q95">
-        <v>1537</v>
+        <v>771</v>
       </c>
     </row>
     <row r="96" spans="1:17">
       <c r="J96" s="1" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="K96">
-        <v>0.02002224694104561</v>
+        <v>0.03131991051454139</v>
       </c>
       <c r="L96">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M96">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="N96">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="O96">
-        <v>0.09999999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="P96" t="b">
         <v>1</v>
       </c>
       <c r="Q96">
-        <v>881</v>
+        <v>866</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="K97">
-        <v>0.019279128248114</v>
+        <v>0.03023431594860166</v>
       </c>
       <c r="L97">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="M97">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="N97">
-        <v>0.85</v>
+        <v>0.75</v>
       </c>
       <c r="O97">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>2340</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="K98">
-        <v>0.01708278580814717</v>
+        <v>0.02922590837282781</v>
       </c>
       <c r="L98">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M98">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N98">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="O98">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="P98" t="b">
         <v>1</v>
       </c>
       <c r="Q98">
-        <v>748</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
       <c r="K99">
-        <v>0.01666666666666667</v>
+        <v>0.02674638137193203</v>
       </c>
       <c r="L99">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="M99">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="N99">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="O99">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="P99" t="b">
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>885</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K100">
-        <v>0.01603665521191294</v>
+        <v>0.02531645569620253</v>
       </c>
       <c r="L100">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N100">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="O100">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="P100" t="b">
         <v>1</v>
       </c>
       <c r="Q100">
-        <v>859</v>
+        <v>693</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>81</v>
+        <v>192</v>
       </c>
       <c r="K101">
-        <v>0.01597573306370071</v>
+        <v>0.02515723270440252</v>
       </c>
       <c r="L101">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="M101">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="N101">
-        <v>0.61</v>
+        <v>0.87</v>
       </c>
       <c r="O101">
-        <v>0.39</v>
+        <v>0.13</v>
       </c>
       <c r="P101" t="b">
         <v>1</v>
       </c>
       <c r="Q101">
-        <v>4866</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="K102">
-        <v>0.01497695852534562</v>
+        <v>0.02346227013316424</v>
       </c>
       <c r="L102">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M102">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="N102">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O102">
-        <v>0.52</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P102" t="b">
         <v>1</v>
       </c>
       <c r="Q102">
-        <v>855</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="K103">
-        <v>0.01424668227946916</v>
+        <v>0.02333333333333333</v>
       </c>
       <c r="L103">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="M103">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="N103">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="O103">
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="P103" t="b">
         <v>1</v>
       </c>
       <c r="Q103">
-        <v>5051</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="K104">
-        <v>0.01411290322580645</v>
+        <v>0.02277432712215321</v>
       </c>
       <c r="L104">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="M104">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="N104">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="O104">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
       <c r="P104" t="b">
         <v>1</v>
       </c>
       <c r="Q104">
-        <v>978</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="K105">
-        <v>0.01349948078920041</v>
+        <v>0.02183908045977011</v>
       </c>
       <c r="L105">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M105">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="N105">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="O105">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>950</v>
+        <v>851</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>77</v>
+        <v>195</v>
       </c>
       <c r="K106">
-        <v>0.01273046532045654</v>
+        <v>0.02157164869029276</v>
       </c>
       <c r="L106">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="M106">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N106">
-        <v>0.48</v>
+        <v>0.7</v>
       </c>
       <c r="O106">
-        <v>0.52</v>
+        <v>0.3</v>
       </c>
       <c r="P106" t="b">
         <v>1</v>
       </c>
       <c r="Q106">
-        <v>2249</v>
+        <v>635</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K107">
-        <v>0.01191310441485634</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L107">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M107">
-        <v>98</v>
+        <v>29</v>
       </c>
       <c r="N107">
-        <v>0.52</v>
+        <v>0.45</v>
       </c>
       <c r="O107">
-        <v>0.48</v>
+        <v>0.55</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>4230</v>
+        <v>598</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="K108">
-        <v>0.01027557216254087</v>
+        <v>0.02064220183486239</v>
       </c>
       <c r="L108">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M108">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N108">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="O108">
-        <v>0.4399999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>2119</v>
+        <v>854</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K109">
+        <v>0.02023121387283237</v>
+      </c>
+      <c r="L109">
+        <v>21</v>
+      </c>
+      <c r="M109">
+        <v>23</v>
+      </c>
+      <c r="N109">
+        <v>0.91</v>
+      </c>
+      <c r="O109">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="110" spans="10:17">
+      <c r="J110" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K110">
+        <v>0.0195822454308094</v>
+      </c>
+      <c r="L110">
+        <v>15</v>
+      </c>
+      <c r="M110">
+        <v>19</v>
+      </c>
+      <c r="N110">
+        <v>0.79</v>
+      </c>
+      <c r="O110">
+        <v>0.21</v>
+      </c>
+      <c r="P110" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q110">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="111" spans="10:17">
+      <c r="J111" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K111">
+        <v>0.01903695408734602</v>
+      </c>
+      <c r="L111">
+        <v>17</v>
+      </c>
+      <c r="M111">
+        <v>18</v>
+      </c>
+      <c r="N111">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O111">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P111" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q111">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="112" spans="10:17">
+      <c r="J112" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K112">
+        <v>0.01706551588858376</v>
+      </c>
+      <c r="L112">
+        <v>87</v>
+      </c>
+      <c r="M112">
+        <v>154</v>
+      </c>
+      <c r="N112">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O112">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P112" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q112">
+        <v>5011</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K113">
+        <v>0.01558704453441296</v>
+      </c>
+      <c r="L113">
+        <v>77</v>
+      </c>
+      <c r="M113">
+        <v>133</v>
+      </c>
+      <c r="N113">
+        <v>0.58</v>
+      </c>
+      <c r="O113">
+        <v>0.42</v>
+      </c>
+      <c r="P113" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q113">
+        <v>4863</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K114">
+        <v>0.01472306613694789</v>
+      </c>
+      <c r="L114">
+        <v>63</v>
+      </c>
+      <c r="M114">
+        <v>112</v>
+      </c>
+      <c r="N114">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O114">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P114" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q114">
+        <v>4216</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115">
+        <v>0.01412639405204461</v>
+      </c>
+      <c r="L115">
+        <v>19</v>
+      </c>
+      <c r="M115">
+        <v>37</v>
+      </c>
+      <c r="N115">
+        <v>0.51</v>
+      </c>
+      <c r="O115">
+        <v>0.49</v>
+      </c>
+      <c r="P115" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K116">
+        <v>0.01218940459446789</v>
+      </c>
+      <c r="L116">
+        <v>26</v>
+      </c>
+      <c r="M116">
+        <v>51</v>
+      </c>
+      <c r="N116">
+        <v>0.51</v>
+      </c>
+      <c r="O116">
+        <v>0.49</v>
+      </c>
+      <c r="P116" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q116">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K117">
+        <v>0.01165919282511211</v>
+      </c>
+      <c r="L117">
+        <v>13</v>
+      </c>
+      <c r="M117">
+        <v>38</v>
+      </c>
+      <c r="N117">
+        <v>0.34</v>
+      </c>
+      <c r="O117">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K118">
+        <v>0.01098418277680141</v>
+      </c>
+      <c r="L118">
+        <v>25</v>
+      </c>
+      <c r="M118">
+        <v>58</v>
+      </c>
+      <c r="N118">
+        <v>0.43</v>
+      </c>
+      <c r="O118">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K109">
-        <v>0.006143667296786389</v>
-      </c>
-      <c r="L109">
-        <v>13</v>
-      </c>
-      <c r="M109">
-        <v>40</v>
-      </c>
-      <c r="N109">
-        <v>0.33</v>
-      </c>
-      <c r="O109">
-        <v>0.6699999999999999</v>
-      </c>
-      <c r="P109" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q109">
-        <v>2103</v>
+      <c r="K119">
+        <v>0.009560229445506692</v>
+      </c>
+      <c r="L119">
+        <v>20</v>
+      </c>
+      <c r="M119">
+        <v>71</v>
+      </c>
+      <c r="N119">
+        <v>0.28</v>
+      </c>
+      <c r="O119">
+        <v>0.72</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K120">
+        <v>0.009086975335352661</v>
+      </c>
+      <c r="L120">
+        <v>21</v>
+      </c>
+      <c r="M120">
+        <v>89</v>
+      </c>
+      <c r="N120">
+        <v>0.24</v>
+      </c>
+      <c r="O120">
+        <v>0.76</v>
+      </c>
+      <c r="P120" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q120">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K121">
+        <v>0.007333333333333333</v>
+      </c>
+      <c r="L121">
+        <v>22</v>
+      </c>
+      <c r="M121">
+        <v>129</v>
+      </c>
+      <c r="N121">
+        <v>0.17</v>
+      </c>
+      <c r="O121">
+        <v>0.83</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>2978</v>
       </c>
     </row>
   </sheetData>
